--- a/templates/AutomationOrg/Create Engineering Item Master.xlsx
+++ b/templates/AutomationOrg/Create Engineering Item Master.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="126">
   <si>
     <t>Item Number</t>
   </si>
@@ -412,6 +412,12 @@
   </si>
   <si>
     <t>a345f000000uaUoAAI</t>
+  </si>
+  <si>
+    <t>Pro-PEItem-Y0OEQ</t>
+  </si>
+  <si>
+    <t>a345f000000uaeAAAQ</t>
   </si>
 </sst>
 </file>
@@ -422,7 +428,7 @@
     <numFmt numFmtId="164" formatCode="mm\/dd\/yyyy"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -499,6 +505,18 @@
       <color indexed="10"/>
       <b val="true"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -508,7 +526,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -528,11 +546,14 @@
     <border>
       <bottom style="thin"/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
@@ -544,8 +565,10 @@
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="7" numFmtId="49" xfId="0"/>
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="8" numFmtId="165" xfId="0"/>
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="3" fillId="0" fontId="9" numFmtId="49" xfId="0"/>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="4" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="10" numFmtId="165" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="11" numFmtId="49" xfId="0"/>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="5" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -980,9 +1003,9 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="11.5546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="18.046875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="20.67578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="21.3984375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -1004,13 +1027,13 @@
         <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C2" t="s">
         <v>112</v>
       </c>
       <c r="D2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/templates/AutomationOrg/Create Engineering Item Master.xlsx
+++ b/templates/AutomationOrg/Create Engineering Item Master.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="134">
   <si>
     <t>Item Number</t>
   </si>
@@ -414,10 +414,34 @@
     <t>a345f000000uaUoAAI</t>
   </si>
   <si>
-    <t>Pro-PEItem-Y0OEQ</t>
-  </si>
-  <si>
-    <t>a345f000000uaeAAAQ</t>
+    <t>Pro-PEItem-UMTET</t>
+  </si>
+  <si>
+    <t>a345f000000uabVAAQ</t>
+  </si>
+  <si>
+    <t>Pro-PEItem-W1WQL</t>
+  </si>
+  <si>
+    <t>a345f000000uabaAAA</t>
+  </si>
+  <si>
+    <t>Pro-PEItem-XOYRT</t>
+  </si>
+  <si>
+    <t>a345f000000uadbAAA</t>
+  </si>
+  <si>
+    <t>Pro-PEItem-Y9A8K</t>
+  </si>
+  <si>
+    <t>a345f000000uaetAAA</t>
+  </si>
+  <si>
+    <t>Pro-PEItem-YHK8K</t>
+  </si>
+  <si>
+    <t>a345f000000uaf8AAA</t>
   </si>
 </sst>
 </file>
@@ -428,7 +452,7 @@
     <numFmt numFmtId="164" formatCode="mm\/dd\/yyyy"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -456,6 +480,54 @@
       <color rgb="FF202124"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -526,7 +598,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -549,11 +621,23 @@
     <border>
       <bottom style="thin"/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="23">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
@@ -567,8 +651,16 @@
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="3" fillId="0" fontId="9" numFmtId="49" xfId="0"/>
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="10" numFmtId="165" xfId="0"/>
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="11" numFmtId="49" xfId="0"/>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="5" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="12" numFmtId="165" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="5" fillId="0" fontId="13" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="14" numFmtId="165" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="6" fillId="0" fontId="15" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="16" numFmtId="165" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="7" fillId="0" fontId="17" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="18" numFmtId="165" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="8" fillId="0" fontId="19" numFmtId="49" xfId="0"/>
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="9" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -1003,9 +1095,9 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="11.5546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="17.64453125" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="21.3984375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="20.609375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -1027,13 +1119,13 @@
         <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="C2" t="s">
         <v>112</v>
       </c>
       <c r="D2" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>

--- a/templates/AutomationOrg/Create Engineering Item Master.xlsx
+++ b/templates/AutomationOrg/Create Engineering Item Master.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="138">
   <si>
     <t>Item Number</t>
   </si>
@@ -442,6 +442,18 @@
   </si>
   <si>
     <t>a345f000000uaf8AAA</t>
+  </si>
+  <si>
+    <t>Pro-PEItem-4HG8Z</t>
+  </si>
+  <si>
+    <t>a345f000000uafmAAA</t>
+  </si>
+  <si>
+    <t>Pro-PEItem-4J92C</t>
+  </si>
+  <si>
+    <t>a345f000000uafrAAA</t>
   </si>
 </sst>
 </file>
@@ -452,7 +464,7 @@
     <numFmt numFmtId="164" formatCode="mm\/dd\/yyyy"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -480,6 +492,30 @@
       <color rgb="FF202124"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -598,7 +634,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -633,11 +669,17 @@
     <border>
       <bottom style="thin"/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="27">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
@@ -659,8 +701,12 @@
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="7" fillId="0" fontId="17" numFmtId="49" xfId="0"/>
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="18" numFmtId="165" xfId="0"/>
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="8" fillId="0" fontId="19" numFmtId="49" xfId="0"/>
-    <xf numFmtId="165" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="9" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="20" numFmtId="165" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="9" fillId="0" fontId="21" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="22" numFmtId="165" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="10" fillId="0" fontId="23" numFmtId="49" xfId="0"/>
+    <xf numFmtId="165" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="11" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -1095,9 +1141,9 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="11.5546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="17.64453125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="17.01953125" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="20.609375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="20.26171875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -1119,13 +1165,13 @@
         <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C2" t="s">
         <v>112</v>
       </c>
       <c r="D2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>

--- a/templates/AutomationOrg/Create Engineering Item Master.xlsx
+++ b/templates/AutomationOrg/Create Engineering Item Master.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="144">
   <si>
     <t>Item Number</t>
   </si>
@@ -454,6 +454,24 @@
   </si>
   <si>
     <t>a345f000000uafrAAA</t>
+  </si>
+  <si>
+    <t>Pro-PEItem-M72O3</t>
+  </si>
+  <si>
+    <t>a345f000000uau8AAA</t>
+  </si>
+  <si>
+    <t>Pro-PEItem-N4EN6</t>
+  </si>
+  <si>
+    <t>a345f000000uauDAAQ</t>
+  </si>
+  <si>
+    <t>Pro-PEItem-NXQGE</t>
+  </si>
+  <si>
+    <t>a345f000000uauIAAQ</t>
   </si>
 </sst>
 </file>
@@ -464,7 +482,7 @@
     <numFmt numFmtId="164" formatCode="mm\/dd\/yyyy"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -492,6 +510,42 @@
       <color rgb="FF202124"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -634,7 +688,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -675,11 +729,20 @@
     <border>
       <bottom style="thin"/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="33">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
@@ -705,8 +768,14 @@
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="9" fillId="0" fontId="21" numFmtId="49" xfId="0"/>
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="22" numFmtId="165" xfId="0"/>
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="10" fillId="0" fontId="23" numFmtId="49" xfId="0"/>
-    <xf numFmtId="165" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="11" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="24" numFmtId="165" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="11" fillId="0" fontId="25" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="26" numFmtId="165" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="12" fillId="0" fontId="27" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="28" numFmtId="165" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="13" fillId="0" fontId="29" numFmtId="49" xfId="0"/>
+    <xf numFmtId="165" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="14" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -1141,9 +1210,9 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="11.5546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="17.01953125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="18.3046875" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="20.26171875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="20.7421875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -1165,13 +1234,13 @@
         <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="C2" t="s">
         <v>112</v>
       </c>
       <c r="D2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>

--- a/templates/AutomationOrg/Create Engineering Item Master.xlsx
+++ b/templates/AutomationOrg/Create Engineering Item Master.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="146">
   <si>
     <t>Item Number</t>
   </si>
@@ -472,6 +472,12 @@
   </si>
   <si>
     <t>a345f000000uauIAAQ</t>
+  </si>
+  <si>
+    <t>Pro-PEItem-JK8M4</t>
+  </si>
+  <si>
+    <t>a345f000000uc5GAAQ</t>
   </si>
 </sst>
 </file>
@@ -482,7 +488,7 @@
     <numFmt numFmtId="164" formatCode="mm\/dd\/yyyy"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="32" x14ac:knownFonts="1">
+  <fonts count="34" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -510,6 +516,18 @@
       <color rgb="FF202124"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -688,7 +706,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -738,11 +756,14 @@
     <border>
       <bottom style="thin"/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
@@ -774,8 +795,10 @@
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="12" fillId="0" fontId="27" numFmtId="49" xfId="0"/>
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="28" numFmtId="165" xfId="0"/>
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="13" fillId="0" fontId="29" numFmtId="49" xfId="0"/>
-    <xf numFmtId="165" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="31" fillId="0" borderId="14" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="30" numFmtId="165" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="14" fillId="0" fontId="31" numFmtId="49" xfId="0"/>
+    <xf numFmtId="165" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="33" fillId="0" borderId="15" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -1210,9 +1233,9 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="11.5546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="18.3046875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="17.75390625" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="20.7421875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="21.41015625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -1234,13 +1257,13 @@
         <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C2" t="s">
         <v>112</v>
       </c>
       <c r="D2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>

--- a/templates/AutomationOrg/Create Engineering Item Master.xlsx
+++ b/templates/AutomationOrg/Create Engineering Item Master.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="148">
   <si>
     <t>Item Number</t>
   </si>
@@ -478,6 +478,12 @@
   </si>
   <si>
     <t>a345f000000uc5GAAQ</t>
+  </si>
+  <si>
+    <t>Pro-PEItem-W0WHB</t>
+  </si>
+  <si>
+    <t>a345f000000udLyAAI</t>
   </si>
 </sst>
 </file>
@@ -488,7 +494,7 @@
     <numFmt numFmtId="164" formatCode="mm\/dd\/yyyy"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="34" x14ac:knownFonts="1">
+  <fonts count="36" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -516,6 +522,18 @@
       <color rgb="FF202124"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -706,7 +724,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -759,11 +777,14 @@
     <border>
       <bottom style="thin"/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
@@ -797,8 +818,10 @@
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="13" fillId="0" fontId="29" numFmtId="49" xfId="0"/>
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="30" numFmtId="165" xfId="0"/>
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="14" fillId="0" fontId="31" numFmtId="49" xfId="0"/>
-    <xf numFmtId="165" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="33" fillId="0" borderId="15" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="32" numFmtId="165" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="15" fillId="0" fontId="33" numFmtId="49" xfId="0"/>
+    <xf numFmtId="165" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="35" fillId="0" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -1233,9 +1256,9 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="11.5546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="17.75390625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="19.3984375" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="21.41015625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="20.12890625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -1257,13 +1280,13 @@
         <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C2" t="s">
         <v>112</v>
       </c>
       <c r="D2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>

--- a/templates/AutomationOrg/Create Engineering Item Master.xlsx
+++ b/templates/AutomationOrg/Create Engineering Item Master.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="154">
   <si>
     <t>Item Number</t>
   </si>
@@ -484,6 +484,24 @@
   </si>
   <si>
     <t>a345f000000udLyAAI</t>
+  </si>
+  <si>
+    <t>Pro-PEItem-960EG</t>
+  </si>
+  <si>
+    <t>a345f000000uhTcAAI</t>
+  </si>
+  <si>
+    <t>Pro-PEItem-AAP8J</t>
+  </si>
+  <si>
+    <t>a345f000000uhThAAI</t>
+  </si>
+  <si>
+    <t>Pro-PEItem-AXCHR</t>
+  </si>
+  <si>
+    <t>a345f000000uhTmAAI</t>
   </si>
 </sst>
 </file>
@@ -494,7 +512,7 @@
     <numFmt numFmtId="164" formatCode="mm\/dd\/yyyy"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="36" x14ac:knownFonts="1">
+  <fonts count="42" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -522,6 +540,42 @@
       <color rgb="FF202124"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -724,7 +778,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -780,11 +834,20 @@
     <border>
       <bottom style="thin"/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="43">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
@@ -820,8 +883,14 @@
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="14" fillId="0" fontId="31" numFmtId="49" xfId="0"/>
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="32" numFmtId="165" xfId="0"/>
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="15" fillId="0" fontId="33" numFmtId="49" xfId="0"/>
-    <xf numFmtId="165" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="35" fillId="0" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="34" numFmtId="165" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="16" fillId="0" fontId="35" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="36" numFmtId="165" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="17" fillId="0" fontId="37" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="38" numFmtId="165" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="18" fillId="0" fontId="39" numFmtId="49" xfId="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="41" fillId="0" borderId="19" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -1256,9 +1325,9 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="11.5546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="19.3984375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="17.953125" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="20.12890625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="21.0390625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -1280,13 +1349,13 @@
         <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="C2" t="s">
         <v>112</v>
       </c>
       <c r="D2" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>

--- a/templates/AutomationOrg/Create Engineering Item Master.xlsx
+++ b/templates/AutomationOrg/Create Engineering Item Master.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="166">
   <si>
     <t>Item Number</t>
   </si>
@@ -502,6 +502,42 @@
   </si>
   <si>
     <t>a345f000000uhTmAAI</t>
+  </si>
+  <si>
+    <t>Pro-PEItem-SGAF2</t>
+  </si>
+  <si>
+    <t>a345f000000ukx7AAA</t>
+  </si>
+  <si>
+    <t>Pro-PEItem-FQQX7</t>
+  </si>
+  <si>
+    <t>a345f000000ul3oAAA</t>
+  </si>
+  <si>
+    <t>Pro-PEItem-432XP</t>
+  </si>
+  <si>
+    <t>a345f000000ulBEAAY</t>
+  </si>
+  <si>
+    <t>Pro-PEItem-E62NP</t>
+  </si>
+  <si>
+    <t>a345f000000ulBJAAY</t>
+  </si>
+  <si>
+    <t>Pro-PEItem-FOWHH</t>
+  </si>
+  <si>
+    <t>a345f000000ulBOAAY</t>
+  </si>
+  <si>
+    <t>Pro-PEItem-GFMJU</t>
+  </si>
+  <si>
+    <t>a345f000000ulBTAAY</t>
   </si>
 </sst>
 </file>
@@ -512,7 +548,7 @@
     <numFmt numFmtId="164" formatCode="mm\/dd\/yyyy"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="42" x14ac:knownFonts="1">
+  <fonts count="54" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -540,6 +576,78 @@
       <color rgb="FF202124"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -778,7 +886,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -843,11 +951,29 @@
     <border>
       <bottom style="thin"/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="55">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
@@ -889,8 +1015,20 @@
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="17" fillId="0" fontId="37" numFmtId="49" xfId="0"/>
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="38" numFmtId="165" xfId="0"/>
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="18" fillId="0" fontId="39" numFmtId="49" xfId="0"/>
-    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="41" fillId="0" borderId="19" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="40" numFmtId="165" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="19" fillId="0" fontId="41" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="42" numFmtId="165" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="20" fillId="0" fontId="43" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="44" numFmtId="165" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="21" fillId="0" fontId="45" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="46" numFmtId="165" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="22" fillId="0" fontId="47" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="48" numFmtId="165" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="23" fillId="0" fontId="49" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="50" numFmtId="165" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="24" fillId="0" fontId="51" numFmtId="49" xfId="0"/>
+    <xf numFmtId="165" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="53" fillId="0" borderId="25" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -1325,9 +1463,9 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="11.5546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="17.953125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="18.19140625" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="21.0390625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="20.34375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -1349,13 +1487,13 @@
         <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="C2" t="s">
         <v>112</v>
       </c>
       <c r="D2" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>

--- a/templates/AutomationOrg/Create Engineering Item Master.xlsx
+++ b/templates/AutomationOrg/Create Engineering Item Master.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="174">
   <si>
     <t>Item Number</t>
   </si>
@@ -538,6 +538,30 @@
   </si>
   <si>
     <t>a345f000000ulBTAAY</t>
+  </si>
+  <si>
+    <t>Pro-PEItem-8LXV4</t>
+  </si>
+  <si>
+    <t>a345f000000umbwAAA</t>
+  </si>
+  <si>
+    <t>Pro-PEItem-JUFH9</t>
+  </si>
+  <si>
+    <t>a345f000000uoYQAAY</t>
+  </si>
+  <si>
+    <t>Pro-PEItem-ON9CX</t>
+  </si>
+  <si>
+    <t>a345f000000uoalAAA</t>
+  </si>
+  <si>
+    <t>Pro-PEItem-W05B7</t>
+  </si>
+  <si>
+    <t>a345f000000uodpAAA</t>
   </si>
 </sst>
 </file>
@@ -548,7 +572,7 @@
     <numFmt numFmtId="164" formatCode="mm\/dd\/yyyy"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="54" x14ac:knownFonts="1">
+  <fonts count="62" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -576,6 +600,54 @@
       <color rgb="FF202124"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -886,7 +958,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -969,11 +1041,23 @@
     <border>
       <bottom style="thin"/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="63">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
@@ -1027,8 +1111,16 @@
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="23" fillId="0" fontId="49" numFmtId="49" xfId="0"/>
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="50" numFmtId="165" xfId="0"/>
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="24" fillId="0" fontId="51" numFmtId="49" xfId="0"/>
-    <xf numFmtId="165" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="53" fillId="0" borderId="25" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="52" numFmtId="165" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="25" fillId="0" fontId="53" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="54" numFmtId="165" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="26" fillId="0" fontId="55" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="56" numFmtId="165" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="27" fillId="0" fontId="57" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="58" numFmtId="165" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="28" fillId="0" fontId="59" numFmtId="49" xfId="0"/>
+    <xf numFmtId="165" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="61" fillId="0" borderId="29" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -1463,9 +1555,9 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="11.5546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="18.19140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="18.30078125" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="20.34375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="21.2421875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -1487,13 +1579,13 @@
         <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="C2" t="s">
         <v>112</v>
       </c>
       <c r="D2" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
